--- a/web2.xlsx
+++ b/web2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8454E142-969B-4DE5-AA8A-6E340EADEC96}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33ECA861-F9D5-4976-BD6B-34ECAE763C03}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="45">
   <si>
     <t>TestScenarioID</t>
   </si>
@@ -154,10 +154,7 @@
     <t>Configuration Saved success message should be displayed</t>
   </si>
   <si>
-    <t>Rejected</t>
-  </si>
-  <si>
-    <t xml:space="preserve">same testcases are repeating </t>
+    <t>Approved</t>
   </si>
 </sst>
 </file>
@@ -531,7 +528,7 @@
   <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -602,9 +599,6 @@
       <c r="I2" t="s">
         <v>44</v>
       </c>
-      <c r="J2" t="s">
-        <v>45</v>
-      </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F3" t="s">
